--- a/biology/Zoologie/Coleomegilla/Coleomegilla.xlsx
+++ b/biology/Zoologie/Coleomegilla/Coleomegilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleomegilla est un genre de coléoptères de la famille des coccinelles.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 mai 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 mai 2024) :
 Coleomegilla innotata (Mulsant, 1850)
 Coleomegilla maculata (DeGeer, 1775)
 Coleomegilla occulta González, 2014
 Coleomegilla quadrifasciata (Thunberg, 1808)
-Selon ITIS      (28 févr. 2011)[2] :
+Selon ITIS      (28 févr. 2011) :
 Coleomegilla cubensis (Casey, 1908)
 Coleomegilla maculata (De Geer, 1775)</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Timberlake, 1920 : Correction of two generic names in Coleoptera and Hymenoptera. Canadian Entomologist, vol. 52, p. 96 (texte intégral).</t>
         </is>
